--- a/dane.xlsx
+++ b/dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>2500</v>
+        <v>9500</v>
       </c>
       <c r="F2" t="n">
-        <v>6500</v>
+        <v>20250</v>
       </c>
       <c r="G2" t="n">
-        <v>-4000</v>
+        <v>-10750</v>
       </c>
     </row>
     <row r="3">
@@ -517,6 +517,27 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Sausage</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>55</v>
+      </c>
+      <c r="E4" t="inlineStr"/>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/dane.xlsx
+++ b/dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -491,10 +491,10 @@
         <v>9500</v>
       </c>
       <c r="F2" t="n">
-        <v>20250</v>
+        <v>22450</v>
       </c>
       <c r="G2" t="n">
-        <v>-10750</v>
+        <v>-12950</v>
       </c>
     </row>
     <row r="3">
@@ -539,6 +539,27 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
     </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Water</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>l</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/dane.xlsx
+++ b/dane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,13 +488,13 @@
         <v>1.5</v>
       </c>
       <c r="E2" t="n">
-        <v>9500</v>
+        <v>20750</v>
       </c>
       <c r="F2" t="n">
         <v>22450</v>
       </c>
       <c r="G2" t="n">
-        <v>-12950</v>
+        <v>-1700</v>
       </c>
     </row>
     <row r="3">
@@ -521,44 +521,23 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sausage</t>
+          <t>Water</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>150</v>
+        <v>2000</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>kg</t>
+          <t>l</t>
         </is>
       </c>
       <c r="D4" t="n">
-        <v>55</v>
+        <v>1.1</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Water</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>l</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E5" t="inlineStr"/>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
